--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Explanation</t>
   </si>
@@ -262,6 +263,18 @@
   </si>
   <si>
     <t>password 36987</t>
+  </si>
+  <si>
+    <t>C:\Program Files\PostgreSQL\15\bin&gt;</t>
+  </si>
+  <si>
+    <t>psql -U postgres</t>
+  </si>
+  <si>
+    <t>\l</t>
+  </si>
+  <si>
+    <t>\c AssetMgtDb</t>
   </si>
 </sst>
 </file>
@@ -638,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,46 +777,63 @@
     <row r="32" spans="1:1">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:9">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:9">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:9">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:9">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>36987</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Explanation</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>\c AssetMgtDb</t>
+  </si>
+  <si>
+    <t>postgres=# \c "CrudDashboardDb"</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>psql -h localhost -U postgres -d postgres -W</t>
   </si>
 </sst>
 </file>
@@ -339,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,6 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,6 +845,33 @@
       <c r="I47" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
